--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,1084 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3810</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2563</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5399</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4839</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1883,4 +1884,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1892,7 +1893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1903,17 +1904,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1923,14 +1944,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.23</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1939,14 +1982,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9724</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1955,14 +2020,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1971,13 +2058,2241 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7834</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6471</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5462</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4191,7 +4192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4202,17 +4203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4222,14 +4243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.67</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.4653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4238,14 +4281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.23</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4254,14 +4319,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2778</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4270,14 +4357,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -4286,13 +4395,2789 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6177</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5787</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0941</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9576</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8642</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7854</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7148</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5761</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5117</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7060,7 +7061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7071,17 +7072,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7091,14 +7112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.52</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.5344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7107,14 +7150,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.67</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.8861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7123,14 +7188,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.23</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7139,14 +7226,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7155,14 +7264,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -7171,13 +7302,2273 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5792</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9715</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9146</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8772</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7618</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7587</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6443</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6416</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4340</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>54.94</v>
+        <v>26.44</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>51.52</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>36.67</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>26.23</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>26.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5662</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2973,7 +4338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5841,7 +7206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8139,7 +9504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9219,7 +10584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9389,7 +10754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9483,7 +10848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02380-中国电力.xlsx
+++ b/数据整理/stocks/港股/02380-中国电力.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>26.44</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>54.94</v>
+        <v>26.44</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>51.52</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>36.67</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>26.23</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>26.23</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -616,7 +633,1297 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.1073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011871</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013271</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源聚利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012711</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +3271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4338,7 +5645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7206,7 +8513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9504,7 +10811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10584,7 +11891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10754,7 +12061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10846,98 +12153,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>